--- a/RUDN/Conclusion/nan.IDA.Con.xlsx
+++ b/RUDN/Conclusion/nan.IDA.Con.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="44">
   <si>
     <t>Первый признак</t>
   </si>
@@ -23,6 +23,111 @@
   </si>
   <si>
     <t>Корреляция</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of adult females living with HIV)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of adult males living with HIV)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>GDP per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, female (number)</t>
@@ -38,6 +143,9 @@
   </si>
   <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>-0.9824147961266112</v>
+        <v>0.9594780834974642</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0.9945876799665622</v>
+        <v>-0.9964738942784911</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +547,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>0.9946198976512309</v>
+        <v>-0.9867312328305498</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,65 +558,8073 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.9999776656531113</v>
+        <v>0.9544358849848328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>-0.9820196860734279</v>
+        <v>-0.9459624293158658</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.994266502752746</v>
+        <v>0.9849988013050933</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.9943029249886253</v>
+        <v>-0.9875698512058718</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>-0.9817819882985515</v>
+        <v>0.9850312456970072</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
+        <v>0.959480118776653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9598803932129414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>0.9093919497354881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>-0.9823914259031068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>-0.928351690723496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>-0.9748109534248418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>-0.8265739356038668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>0.9929925705172158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>0.9934748721558799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>-0.9608127575326849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>0.9847829673661687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.7566638797419026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>-0.9969788831175512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>-0.9976960832415945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>-0.9999577873745532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>-0.977230272094887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>-0.9624036225800672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>0.9847972314732747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>-0.9861128466603571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>-0.9986986888492786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>-0.9987017545695772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>-0.9985847377468022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>-0.9985477628160937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>-0.9984504021705686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>-0.9983719607310814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>0.9998878017909363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>-0.9980973264344565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>-0.9986550937541825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0.9310821645271312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.9305302841052542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>-0.9838734538305507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>-0.970868275688285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>-0.9061802207692716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>-0.9061812455594802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>0.9855317950014467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>0.9883249427327792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>0.9910503470524371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>-0.9126858662245221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.9605105235762567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>0.9893997462196434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>0.9885350170612345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>0.9902288744167481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>-0.9339446950264606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>-0.9771276720468953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>0.9915164697420757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>-0.977190288290851</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>0.9878146647262955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>0.9903972022250626</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>-0.9718676906612145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>0.9295326798225404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>0.9910141035737591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>0.9833921000984578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>0.9728379071374084</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>0.7229707679556716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>0.9909342368564138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0.9663448966742729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>0.9998093831793887</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67">
+        <v>-0.8047655521945463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>-0.9637031553023632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>-0.8436010814480025</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>-0.9839038641297827</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>-0.9629823555910871</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>0.8534547222040046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>0.9711608727792076</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>0.982228447505714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>-0.9851292618968257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>-0.9800079238938534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>0.8903539943852469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>0.8099545826492708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>0.9399512606937697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>0.97616125243554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>0.9791889289362139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>-0.9567402928877892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>0.7772577603554981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>0.9477517552683615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>0.9869982819565565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>0.992758828814883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>-0.9358246565131318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>-0.9358250963669507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>-0.9417148865514655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>0.9510073032845004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>-0.9855374778068425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>0.9710016937597094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>0.9964164253157428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94">
+        <v>0.9960895386741246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95">
+        <v>-0.9845386392016415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96">
+        <v>-0.8807110125038685</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97">
+        <v>0.9967495992153614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98">
+        <v>0.9970383838191363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99">
+        <v>0.9971105894257967</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>0.9974050614564434</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>0.9974473136800531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>0.9974826910836818</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>0.9962972101333653</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104">
+        <v>0.9978687991294556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <v>0.9948952911175371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>0.9857708166486213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>-0.98061733665007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108">
+        <v>-0.7868103983200762</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109">
+        <v>0.9846059535900822</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110">
+        <v>-0.9932299524109909</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>-0.9927738306174836</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112">
+        <v>-0.9855147827319777</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113">
+        <v>-0.8041359600927094</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>-0.967081060878751</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115">
+        <v>0.8602511096770017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>0.9893711727910556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>0.9301266822188549</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>0.9737441377219982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>-0.9663425272015866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>-0.9517422008791906</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>-0.9711722562226287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122">
+        <v>-0.955200238397681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123">
+        <v>-0.9767869493584487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>-0.9570392146574702</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125">
+        <v>0.95751167167992</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <v>-0.9720362704370169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>-0.9574803241882414</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <v>-0.9696752572905012</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129">
+        <v>-0.9584872715312484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>-0.9662413995336416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131">
+        <v>-0.9612545720971692</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132">
+        <v>0.9892084279523924</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>-0.9637149389895039</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134">
+        <v>-0.9532857573141958</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135">
+        <v>-0.9514124480167615</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136">
+        <v>-0.9321606395711631</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137">
+        <v>-0.9513751615123217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138">
+        <v>0.9714598230796956</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139">
+        <v>0.9823963883179347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140">
+        <v>0.9728090744140647</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>0.9820278942105483</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142">
+        <v>0.981950976550295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143">
+        <v>-0.8525975429132787</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144">
+        <v>0.9608882702423901</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>0.9801993995257666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146">
+        <v>-0.9272914017071071</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147">
+        <v>-0.9623920839921134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148">
+        <v>0.9576718111396166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>-0.9407734605913418</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>-0.9119964329800124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151">
+        <v>-0.9423414600334284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>-0.9856487182464533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153">
+        <v>-0.9504306338635109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>-0.969673799644549</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155">
+        <v>-0.9584860285883839</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>-0.8525956995460594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157">
+        <v>0.9819518848831512</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <v>0.9820266304131441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159">
+        <v>-0.9504294194076767</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160">
+        <v>-0.9662412889559827</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161">
+        <v>-0.9612526573497072</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162">
+        <v>-0.955198882522031</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>-0.9517418184110173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164">
+        <v>0.9575110887067836</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>-0.9637146732383444</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166">
+        <v>0.9823950692704504</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167">
+        <v>0.9714601441827073</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168">
+        <v>0.9892105999155342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169">
+        <v>-0.9513737029051673</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>0.980201026815114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>39</v>
+      </c>
+      <c r="C171">
+        <v>0.9728093903295953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172">
+        <v>-0.9623909629562382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173">
+        <v>-0.9321590907862304</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174">
+        <v>-0.9423400537906517</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>-0.9119955853226244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>37</v>
+      </c>
+      <c r="C176">
+        <v>-0.9767839625782743</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177">
+        <v>-0.9514110096894253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178">
+        <v>-0.9720368867852339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179">
+        <v>0.9608864386104022</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180">
+        <v>-0.9570379108169206</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181">
+        <v>0.957671228125637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>-0.9856472905937378</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>-0.9407719496501846</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184">
+        <v>-0.9574790489143772</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185">
+        <v>-0.9532843486284019</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186">
+        <v>-0.9272912258286696</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187">
+        <v>-0.9711722832898896</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>-0.8839430417423196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189">
+        <v>-0.9620189205935648</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>42</v>
+      </c>
+      <c r="C190">
+        <v>-0.9539506425198379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>-0.9382251559406808</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192">
+        <v>-0.9619355185895943</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193">
+        <v>0.9891766687595478</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194">
+        <v>0.9797188859136182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195">
+        <v>0.6852717103066061</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>41</v>
+      </c>
+      <c r="C196">
+        <v>0.9797890873695947</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197">
+        <v>0.9773244448966704</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198">
+        <v>-0.9527998627335208</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199">
+        <v>-0.9542228281593959</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200">
+        <v>-0.8832460931253702</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201">
+        <v>-0.9615305232588929</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>-0.947552945934505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203">
+        <v>-0.9656694418072636</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204">
+        <v>-0.9624853114629555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205">
+        <v>0.9627463034943619</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206">
+        <v>-0.9754910342793132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>-0.975404604421274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>39</v>
+      </c>
+      <c r="C208">
+        <v>0.9906227827277391</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209">
+        <v>-0.9719183356816122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210">
+        <v>-0.9704057565740293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211">
+        <v>0.9622384492713895</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212">
+        <v>-0.967059640625845</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213">
+        <v>0.9902506370743173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214">
+        <v>-0.9652976849200579</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215">
+        <v>0.9768986726961084</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
+        <v>32</v>
+      </c>
+      <c r="C216">
+        <v>-0.9641129801733408</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>35</v>
+      </c>
+      <c r="C217">
+        <v>-0.9661844274088994</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218">
+        <v>-0.9643647327957987</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219">
+        <v>-0.9621554527300656</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220">
+        <v>-0.9853837944035456</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221">
+        <v>0.9174091335024847</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222">
+        <v>0.9790271132091573</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>31</v>
+      </c>
+      <c r="C223">
+        <v>0.9799433126565349</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224">
+        <v>0.9790599577594139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225">
+        <v>0.9624776069669716</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226">
+        <v>0.9815424526544944</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>-0.9448473876991078</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <v>0.9962153236610957</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229">
+        <v>0.9807726947741667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230">
+        <v>-0.9786617419216552</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231">
+        <v>-0.9847826166030745</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232">
+        <v>0.9955502802464189</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C233">
+        <v>-0.9848681430753682</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>0.934106697238867</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>24</v>
+      </c>
+      <c r="C235">
+        <v>0.9938063095371991</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236">
+        <v>0.9812087559168522</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>0.9620479192352631</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>39</v>
+      </c>
+      <c r="C238">
+        <v>-0.9870174574658401</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>0.9824569303098608</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240">
+        <v>0.8400969104420377</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>38</v>
+      </c>
+      <c r="C241">
+        <v>-0.987085568710944</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242">
+        <v>0.9785407210376691</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243">
+        <v>0.9824634861300239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244">
+        <v>-0.9685431142689894</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245">
+        <v>0.9820716469144718</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246">
+        <v>-0.9944584080172578</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247">
+        <v>-0.9944367129368479</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>43</v>
+      </c>
+      <c r="C248">
+        <v>-0.6944638224451667</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249">
+        <v>0.9846046033454912</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>0.9787884924088024</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>42</v>
+      </c>
+      <c r="C251">
+        <v>0.9688005692503695</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252">
+        <v>-0.6841640593380668</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>33</v>
+      </c>
+      <c r="C253">
+        <v>0.9601623185637604</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254">
+        <v>0.9609865737209298</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255">
+        <v>0.8406440130159805</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256">
+        <v>0.9600379598606729</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257">
+        <v>0.9858505758104406</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" t="s">
+        <v>28</v>
+      </c>
+      <c r="C258">
+        <v>0.969666643071486</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
+        <v>32</v>
+      </c>
+      <c r="C259">
+        <v>0.9631896875425486</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" t="s">
+        <v>20</v>
+      </c>
+      <c r="C260">
+        <v>0.8776146613550293</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>0.9335179147942839</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262">
+        <v>0.9718029018820562</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>31</v>
+      </c>
+      <c r="C263">
+        <v>0.9617548774279107</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>34</v>
+      </c>
+      <c r="C264">
+        <v>0.9660296238704481</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265">
+        <v>0.9817419480788927</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" t="s">
+        <v>35</v>
+      </c>
+      <c r="C266">
+        <v>0.9653049383663644</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267">
+        <v>0.862428613171607</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268">
+        <v>0.9627485380479399</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269">
+        <v>0.9603073897903135</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" t="s">
+        <v>42</v>
+      </c>
+      <c r="C270">
+        <v>0.9470989088531812</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271">
+        <v>-0.9628016656236043</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" t="s">
+        <v>40</v>
+      </c>
+      <c r="C272">
+        <v>-0.9832811036514989</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" t="s">
+        <v>41</v>
+      </c>
+      <c r="C273">
+        <v>-0.9833389081471982</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274">
+        <v>0.9781527051455756</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275">
+        <v>-0.9786658406054385</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" t="s">
+        <v>38</v>
+      </c>
+      <c r="C276">
+        <v>-0.9769632177566349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277">
+        <v>-0.9783545090258756</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s">
+        <v>21</v>
+      </c>
+      <c r="C278">
+        <v>-0.9752782274699421</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279">
+        <v>0.9888218212163437</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280">
+        <v>-0.9772900373819225</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281">
+        <v>0.9515215100597176</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" t="s">
+        <v>36</v>
+      </c>
+      <c r="C282">
+        <v>-0.9667396689838236</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283">
+        <v>0.9174048591736508</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284">
+        <v>0.7956325262768706</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" t="s">
+        <v>25</v>
+      </c>
+      <c r="C285">
+        <v>-0.9606300032914198</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" t="s">
+        <v>26</v>
+      </c>
+      <c r="C286">
+        <v>-0.961094762197472</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>24</v>
+      </c>
+      <c r="C287">
+        <v>0.9387226321973189</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288">
+        <v>0.9863115939254703</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>31</v>
+      </c>
+      <c r="C289">
+        <v>0.9846390281322753</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290">
+        <v>0.9951307318103788</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291" t="s">
+        <v>39</v>
+      </c>
+      <c r="C291">
+        <v>-0.9875519557412354</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292" t="s">
+        <v>28</v>
+      </c>
+      <c r="C292">
+        <v>0.9884658596597634</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293">
+        <v>0.811704292688739</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" t="s">
+        <v>35</v>
+      </c>
+      <c r="C294">
+        <v>0.9863852369536883</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" t="s">
+        <v>41</v>
+      </c>
+      <c r="C295">
+        <v>-0.9928446935879007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296">
+        <v>0.9866824177408774</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297">
+        <v>-0.9835724678752699</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>0.9680566025311184</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299">
+        <v>0.9971856847540516</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>43</v>
+      </c>
+      <c r="C300">
+        <v>-0.7161253463894884</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>40</v>
+      </c>
+      <c r="C301">
+        <v>-0.9928201942458206</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>38</v>
+      </c>
+      <c r="C302">
+        <v>-0.9876003469030309</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303">
+        <v>0.9331441014910778</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304">
+        <v>0.9702024578350393</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305">
+        <v>0.9833202627063964</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>37</v>
+      </c>
+      <c r="C306">
+        <v>0.9688328016674025</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307">
+        <v>0.9833815610400892</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" t="s">
+        <v>30</v>
+      </c>
+      <c r="C308">
+        <v>0.9859045829126185</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309">
+        <v>0.9743449906435293</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>21</v>
+      </c>
+      <c r="C310">
+        <v>-0.9674716879724372</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311">
+        <v>-0.9881052526618744</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312">
+        <v>0.925616875172719</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313">
+        <v>0.9836667936169148</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314" t="s">
+        <v>32</v>
+      </c>
+      <c r="C314">
+        <v>0.9853004555389799</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315" t="s">
+        <v>36</v>
+      </c>
+      <c r="C315">
+        <v>-0.940747894259395</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316">
+        <v>-0.9878834692323726</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" t="s">
+        <v>29</v>
+      </c>
+      <c r="C317">
+        <v>0.9834807068181688</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" t="s">
+        <v>42</v>
+      </c>
+      <c r="C318">
+        <v>0.9902067019035142</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319">
+        <v>0.997446085583945</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320">
+        <v>-0.7169191054181117</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321">
+        <v>0.9902272797398122</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" t="s">
+        <v>21</v>
+      </c>
+      <c r="C322">
+        <v>-0.9679295862322218</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323">
+        <v>0.9473683383726563</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>37</v>
+      </c>
+      <c r="C324">
+        <v>0.9811065436794386</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" t="s">
+        <v>20</v>
+      </c>
+      <c r="C325">
+        <v>0.9451038990121491</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326">
+        <v>0.9869555116614903</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" t="s">
+        <v>36</v>
+      </c>
+      <c r="C327">
+        <v>-0.9306094595855133</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" t="s">
+        <v>19</v>
+      </c>
+      <c r="C328">
+        <v>0.8482226017575498</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>0.9561613799229077</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330">
+        <v>0.9756213696120369</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" t="s">
+        <v>41</v>
+      </c>
+      <c r="C331">
+        <v>-0.9857302179843163</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332">
+        <v>0.9938141115042366</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333">
+        <v>0.9941357097539713</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334">
+        <v>0.9942776642061617</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>15</v>
+      </c>
+      <c r="B335" t="s">
+        <v>28</v>
+      </c>
+      <c r="C335">
+        <v>0.9965351830348526</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" t="s">
+        <v>40</v>
+      </c>
+      <c r="C336">
+        <v>-0.9856784173330542</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337">
+        <v>0.994907197900375</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" t="s">
+        <v>18</v>
+      </c>
+      <c r="C338">
+        <v>0.8791494841398149</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" t="s">
+        <v>27</v>
+      </c>
+      <c r="C339">
+        <v>-0.997546799356622</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>15</v>
+      </c>
+      <c r="B340" t="s">
+        <v>32</v>
+      </c>
+      <c r="C340">
+        <v>0.9953309098245081</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341" t="s">
+        <v>30</v>
+      </c>
+      <c r="C341">
+        <v>0.9956993284025655</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>15</v>
+      </c>
+      <c r="B342" t="s">
+        <v>35</v>
+      </c>
+      <c r="C342">
+        <v>0.995789177265017</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" t="s">
+        <v>39</v>
+      </c>
+      <c r="C343">
+        <v>-0.9841837931193143</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>15</v>
+      </c>
+      <c r="B344" t="s">
+        <v>34</v>
+      </c>
+      <c r="C344">
+        <v>0.9959561867486982</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345" t="s">
+        <v>38</v>
+      </c>
+      <c r="C345">
+        <v>-0.9839488474698557</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346">
+        <v>-0.9976745355682406</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347">
+        <v>0.9831704690175155</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348">
+        <v>0.9115738221927387</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>16</v>
+      </c>
+      <c r="B349" t="s">
+        <v>28</v>
+      </c>
+      <c r="C349">
+        <v>0.9924841546123241</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>16</v>
+      </c>
+      <c r="B350" t="s">
+        <v>40</v>
+      </c>
+      <c r="C350">
+        <v>-0.9942310396723254</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>16</v>
+      </c>
+      <c r="B351" t="s">
+        <v>35</v>
+      </c>
+      <c r="C351">
+        <v>0.991889436185845</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>16</v>
+      </c>
+      <c r="B352" t="s">
+        <v>39</v>
+      </c>
+      <c r="C352">
+        <v>-0.9873883213016803</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>16</v>
+      </c>
+      <c r="B353" t="s">
+        <v>38</v>
+      </c>
+      <c r="C353">
+        <v>-0.9877666785278649</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354">
+        <v>0.9915931879330367</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>16</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355">
+        <v>-0.9883242224216174</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" t="s">
+        <v>32</v>
+      </c>
+      <c r="C356">
+        <v>0.9914665950118955</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>16</v>
+      </c>
+      <c r="B357" t="s">
+        <v>31</v>
+      </c>
+      <c r="C357">
+        <v>0.9912896227665107</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358" t="s">
+        <v>36</v>
+      </c>
+      <c r="C358">
+        <v>-0.9154558793748896</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>16</v>
+      </c>
+      <c r="B359" t="s">
+        <v>29</v>
+      </c>
+      <c r="C359">
+        <v>0.9881614228812894</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>24</v>
+      </c>
+      <c r="C360">
+        <v>0.9934920842764868</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>16</v>
+      </c>
+      <c r="B361" t="s">
+        <v>25</v>
+      </c>
+      <c r="C361">
+        <v>-0.9849863356512438</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>16</v>
+      </c>
+      <c r="B362" t="s">
+        <v>26</v>
+      </c>
+      <c r="C362">
+        <v>-0.9849655919311217</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>16</v>
+      </c>
+      <c r="B363" t="s">
+        <v>37</v>
+      </c>
+      <c r="C363">
+        <v>0.9615474581412113</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364" t="s">
+        <v>34</v>
+      </c>
+      <c r="C364">
+        <v>0.9919212746381542</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>16</v>
+      </c>
+      <c r="B365" t="s">
+        <v>33</v>
+      </c>
+      <c r="C365">
+        <v>0.9909124528591911</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366" t="s">
+        <v>22</v>
+      </c>
+      <c r="C366">
+        <v>0.9905819296412405</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>16</v>
+      </c>
+      <c r="B367" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367">
+        <v>0.990494768916795</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" t="s">
+        <v>21</v>
+      </c>
+      <c r="C368">
+        <v>-0.9543569467150029</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>16</v>
+      </c>
+      <c r="B369" t="s">
+        <v>17</v>
+      </c>
+      <c r="C369">
+        <v>0.9640041953513957</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>16</v>
+      </c>
+      <c r="B370" t="s">
+        <v>42</v>
+      </c>
+      <c r="C370">
+        <v>0.9839228539444225</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>16</v>
+      </c>
+      <c r="B371" t="s">
+        <v>41</v>
+      </c>
+      <c r="C371">
+        <v>-0.9942249288168145</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>16</v>
+      </c>
+      <c r="B372" t="s">
+        <v>43</v>
+      </c>
+      <c r="C372">
+        <v>-0.7492512165629911</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373">
+        <v>0.9503628205468162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>16</v>
+      </c>
+      <c r="B374" t="s">
+        <v>18</v>
+      </c>
+      <c r="C374">
+        <v>0.8171130402410608</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>17</v>
+      </c>
+      <c r="B375" t="s">
+        <v>20</v>
+      </c>
+      <c r="C375">
+        <v>0.8816790310964505</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>17</v>
+      </c>
+      <c r="B376" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376">
+        <v>0.9706670402762451</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>17</v>
+      </c>
+      <c r="B377" t="s">
+        <v>26</v>
+      </c>
+      <c r="C377">
+        <v>-0.9606993921617349</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>17</v>
+      </c>
+      <c r="B378" t="s">
+        <v>25</v>
+      </c>
+      <c r="C378">
+        <v>-0.9603886184297671</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" t="s">
+        <v>29</v>
+      </c>
+      <c r="C379">
+        <v>0.860077693704651</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" t="s">
+        <v>38</v>
+      </c>
+      <c r="C380">
+        <v>-0.8562534240749046</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" t="s">
+        <v>27</v>
+      </c>
+      <c r="C381">
+        <v>-0.8590366861979938</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" t="s">
+        <v>25</v>
+      </c>
+      <c r="C382">
+        <v>-0.8953162221934491</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383" t="s">
+        <v>37</v>
+      </c>
+      <c r="C383">
+        <v>0.9004637734872404</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" t="s">
+        <v>20</v>
+      </c>
+      <c r="C384">
+        <v>0.7067732435817184</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" t="s">
+        <v>26</v>
+      </c>
+      <c r="C385">
+        <v>-0.8957017977665902</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386">
+        <v>0.7704051425630252</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>18</v>
+      </c>
+      <c r="B387" t="s">
+        <v>21</v>
+      </c>
+      <c r="C387">
+        <v>-0.9180525551881168</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388" t="s">
+        <v>36</v>
+      </c>
+      <c r="C388">
+        <v>-0.9384829502175378</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>18</v>
+      </c>
+      <c r="B389" t="s">
+        <v>41</v>
+      </c>
+      <c r="C389">
+        <v>-0.8313869967129768</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>18</v>
+      </c>
+      <c r="B390" t="s">
+        <v>24</v>
+      </c>
+      <c r="C390">
+        <v>0.8575654301660101</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>18</v>
+      </c>
+      <c r="B391" t="s">
+        <v>40</v>
+      </c>
+      <c r="C391">
+        <v>-0.8311059864464935</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" t="s">
+        <v>34</v>
+      </c>
+      <c r="C392">
+        <v>0.8466644737759831</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>18</v>
+      </c>
+      <c r="B393" t="s">
+        <v>13</v>
+      </c>
+      <c r="C393">
+        <v>0.9698389296611792</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>19</v>
+      </c>
+      <c r="C394">
+        <v>0.9928615644085174</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395" t="s">
+        <v>33</v>
+      </c>
+      <c r="C395">
+        <v>0.8336254292824901</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" t="s">
+        <v>28</v>
+      </c>
+      <c r="C396">
+        <v>0.8519382094894808</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" t="s">
+        <v>22</v>
+      </c>
+      <c r="C397">
+        <v>0.836843352074461</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398">
+        <v>0.8369243112892726</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>18</v>
+      </c>
+      <c r="B399" t="s">
+        <v>42</v>
+      </c>
+      <c r="C399">
+        <v>0.8362362428791998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" t="s">
+        <v>17</v>
+      </c>
+      <c r="C400">
+        <v>0.812401189606773</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>30</v>
+      </c>
+      <c r="C401">
+        <v>0.8449172333232263</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" t="s">
+        <v>35</v>
+      </c>
+      <c r="C402">
+        <v>0.8451111978157628</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" t="s">
+        <v>21</v>
+      </c>
+      <c r="C403">
+        <v>-0.9048403375924184</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>19</v>
+      </c>
+      <c r="B404" t="s">
+        <v>25</v>
+      </c>
+      <c r="C404">
+        <v>-0.8680161872394636</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>19</v>
+      </c>
+      <c r="B405" t="s">
+        <v>26</v>
+      </c>
+      <c r="C405">
+        <v>-0.8679319753735147</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>19</v>
+      </c>
+      <c r="B406" t="s">
+        <v>34</v>
+      </c>
+      <c r="C406">
+        <v>0.8151390014475137</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>19</v>
+      </c>
+      <c r="B407" t="s">
+        <v>39</v>
+      </c>
+      <c r="C407">
+        <v>-0.8346630428095629</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>19</v>
+      </c>
+      <c r="B408" t="s">
+        <v>38</v>
+      </c>
+      <c r="C408">
+        <v>-0.8316804934262693</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>19</v>
+      </c>
+      <c r="B409" t="s">
+        <v>13</v>
+      </c>
+      <c r="C409">
+        <v>0.9561990656006295</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>19</v>
+      </c>
+      <c r="B410" t="s">
+        <v>28</v>
+      </c>
+      <c r="C410">
+        <v>0.8210215242380035</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>19</v>
+      </c>
+      <c r="B411" t="s">
+        <v>31</v>
+      </c>
+      <c r="C411">
+        <v>0.8066827192930683</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" t="s">
+        <v>40</v>
+      </c>
+      <c r="C412">
+        <v>-0.7997794341038466</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>19</v>
+      </c>
+      <c r="B413" t="s">
+        <v>41</v>
+      </c>
+      <c r="C413">
+        <v>-0.8000921755869954</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>19</v>
+      </c>
+      <c r="B414" t="s">
+        <v>35</v>
+      </c>
+      <c r="C414">
+        <v>0.8133510028249364</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>19</v>
+      </c>
+      <c r="B415" t="s">
+        <v>22</v>
+      </c>
+      <c r="C415">
+        <v>0.8042530399866175</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>19</v>
+      </c>
+      <c r="B416" t="s">
+        <v>23</v>
+      </c>
+      <c r="C416">
+        <v>0.804245913334111</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>19</v>
+      </c>
+      <c r="B417" t="s">
+        <v>42</v>
+      </c>
+      <c r="C417">
+        <v>0.8029139120630963</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>19</v>
+      </c>
+      <c r="B418" t="s">
+        <v>33</v>
+      </c>
+      <c r="C418">
+        <v>0.8007723793342056</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>19</v>
+      </c>
+      <c r="B419" t="s">
+        <v>37</v>
+      </c>
+      <c r="C419">
+        <v>0.8742878584186226</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>19</v>
+      </c>
+      <c r="B420" t="s">
+        <v>17</v>
+      </c>
+      <c r="C420">
+        <v>0.7836758788680362</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>19</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421">
+        <v>0.7341071240353816</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>19</v>
+      </c>
+      <c r="B422" t="s">
+        <v>24</v>
+      </c>
+      <c r="C422">
+        <v>0.8308739508304334</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>19</v>
+      </c>
+      <c r="B423" t="s">
+        <v>20</v>
+      </c>
+      <c r="C423">
+        <v>0.6653321323898088</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>19</v>
+      </c>
+      <c r="B424" t="s">
+        <v>29</v>
+      </c>
+      <c r="C424">
+        <v>0.8288635928485154</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>20</v>
+      </c>
+      <c r="B425" t="s">
+        <v>25</v>
+      </c>
+      <c r="C425">
+        <v>-0.9282605472861599</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>20</v>
+      </c>
+      <c r="B426" t="s">
+        <v>24</v>
+      </c>
+      <c r="C426">
+        <v>0.9321675188246007</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>20</v>
+      </c>
+      <c r="B427" t="s">
+        <v>26</v>
+      </c>
+      <c r="C427">
+        <v>-0.9269055947130272</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>20</v>
+      </c>
+      <c r="B428" t="s">
+        <v>43</v>
+      </c>
+      <c r="C428">
+        <v>-0.831841834546786</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>21</v>
+      </c>
+      <c r="B429" t="s">
+        <v>30</v>
+      </c>
+      <c r="C429">
+        <v>-0.9571445196677549</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>21</v>
+      </c>
+      <c r="B430" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430">
+        <v>-0.9577668818133327</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>21</v>
+      </c>
+      <c r="B431" t="s">
+        <v>25</v>
+      </c>
+      <c r="C431">
+        <v>0.9787076729355743</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>21</v>
+      </c>
+      <c r="B432" t="s">
+        <v>34</v>
+      </c>
+      <c r="C432">
+        <v>-0.9588200685795037</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>21</v>
+      </c>
+      <c r="B433" t="s">
+        <v>27</v>
+      </c>
+      <c r="C433">
+        <v>0.9572212065139725</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>21</v>
+      </c>
+      <c r="B434" t="s">
+        <v>29</v>
+      </c>
+      <c r="C434">
+        <v>-0.9567990365097818</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>21</v>
+      </c>
+      <c r="B435" t="s">
+        <v>36</v>
+      </c>
+      <c r="C435">
+        <v>0.9788695307918611</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>21</v>
+      </c>
+      <c r="B436" t="s">
+        <v>37</v>
+      </c>
+      <c r="C436">
+        <v>-0.9639400462844606</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>21</v>
+      </c>
+      <c r="B437" t="s">
+        <v>13</v>
+      </c>
+      <c r="C437">
+        <v>-0.9731269598182621</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>21</v>
+      </c>
+      <c r="B438" t="s">
+        <v>24</v>
+      </c>
+      <c r="C438">
+        <v>-0.9791389556075754</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>21</v>
+      </c>
+      <c r="B439" t="s">
+        <v>38</v>
+      </c>
+      <c r="C439">
+        <v>0.9747958146861321</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>21</v>
+      </c>
+      <c r="B440" t="s">
+        <v>39</v>
+      </c>
+      <c r="C440">
+        <v>0.975721882281522</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>21</v>
+      </c>
+      <c r="B441" t="s">
+        <v>28</v>
+      </c>
+      <c r="C441">
+        <v>-0.9629818666373393</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" t="s">
+        <v>26</v>
+      </c>
+      <c r="C442">
+        <v>0.9788769237544671</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>21</v>
+      </c>
+      <c r="B443" t="s">
+        <v>31</v>
+      </c>
+      <c r="C443">
+        <v>-0.9532737242145133</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>21</v>
+      </c>
+      <c r="B444" t="s">
+        <v>32</v>
+      </c>
+      <c r="C444">
+        <v>-0.9552473885666072</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>21</v>
+      </c>
+      <c r="B445" t="s">
+        <v>33</v>
+      </c>
+      <c r="C445">
+        <v>-0.952230126053824</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>21</v>
+      </c>
+      <c r="B446" t="s">
+        <v>22</v>
+      </c>
+      <c r="C446">
+        <v>-0.9516918921159216</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>21</v>
+      </c>
+      <c r="B447" t="s">
+        <v>23</v>
+      </c>
+      <c r="C447">
+        <v>-0.9514969688116792</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>21</v>
+      </c>
+      <c r="B448" t="s">
+        <v>17</v>
+      </c>
+      <c r="C448">
+        <v>-0.9496419462536226</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>21</v>
+      </c>
+      <c r="B449" t="s">
+        <v>20</v>
+      </c>
+      <c r="C449">
+        <v>-0.8592096612651549</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>21</v>
+      </c>
+      <c r="B450" t="s">
+        <v>41</v>
+      </c>
+      <c r="C450">
+        <v>0.9655239861242436</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>21</v>
+      </c>
+      <c r="B451" t="s">
+        <v>40</v>
+      </c>
+      <c r="C451">
+        <v>0.9654043845927881</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>22</v>
+      </c>
+      <c r="B452" t="s">
+        <v>41</v>
+      </c>
+      <c r="C452">
+        <v>-0.989319584246787</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" t="s">
+        <v>26</v>
+      </c>
+      <c r="C453">
+        <v>-0.9898795673363191</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" t="s">
+        <v>25</v>
+      </c>
+      <c r="C454">
+        <v>-0.9903236601565538</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" t="s">
+        <v>37</v>
+      </c>
+      <c r="C455">
+        <v>0.9666921838665059</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" t="s">
+        <v>30</v>
+      </c>
+      <c r="C456">
+        <v>0.9997751410864466</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>22</v>
+      </c>
+      <c r="B457" t="s">
+        <v>23</v>
+      </c>
+      <c r="C457">
+        <v>0.9999854081033034</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>22</v>
+      </c>
+      <c r="B458" t="s">
+        <v>34</v>
+      </c>
+      <c r="C458">
+        <v>0.999627825839174</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>22</v>
+      </c>
+      <c r="B459" t="s">
+        <v>31</v>
+      </c>
+      <c r="C459">
+        <v>0.9999342044876511</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>22</v>
+      </c>
+      <c r="B460" t="s">
+        <v>20</v>
+      </c>
+      <c r="C460">
+        <v>0.9700362257947361</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>22</v>
+      </c>
+      <c r="B461" t="s">
+        <v>42</v>
+      </c>
+      <c r="C461">
+        <v>0.9979206146481931</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>22</v>
+      </c>
+      <c r="B462" t="s">
+        <v>27</v>
+      </c>
+      <c r="C462">
+        <v>-0.9986617418340855</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463" t="s">
+        <v>29</v>
+      </c>
+      <c r="C463">
+        <v>0.9984400948799063</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>22</v>
+      </c>
+      <c r="B464" t="s">
+        <v>40</v>
+      </c>
+      <c r="C464">
+        <v>-0.9893148085322794</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>22</v>
+      </c>
+      <c r="B465" t="s">
+        <v>28</v>
+      </c>
+      <c r="C465">
+        <v>0.9990299095280774</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466" t="s">
+        <v>33</v>
+      </c>
+      <c r="C466">
+        <v>0.9998434165270368</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>22</v>
+      </c>
+      <c r="B467" t="s">
+        <v>35</v>
+      </c>
+      <c r="C467">
+        <v>0.9997154570903127</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" t="s">
+        <v>32</v>
+      </c>
+      <c r="C468">
+        <v>0.9998786840340078</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" t="s">
+        <v>17</v>
+      </c>
+      <c r="C469">
+        <v>0.9504862595567494</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" t="s">
+        <v>38</v>
+      </c>
+      <c r="C470">
+        <v>-0.9880916559729643</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>22</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471">
+        <v>0.9926732428207848</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>22</v>
+      </c>
+      <c r="B472" t="s">
+        <v>43</v>
+      </c>
+      <c r="C472">
+        <v>-0.7647336129524256</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>22</v>
+      </c>
+      <c r="B473" t="s">
+        <v>36</v>
+      </c>
+      <c r="C473">
+        <v>-0.9014952093307903</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>22</v>
+      </c>
+      <c r="B474" t="s">
+        <v>39</v>
+      </c>
+      <c r="C474">
+        <v>-0.9878059596910007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>22</v>
+      </c>
+      <c r="B475" t="s">
+        <v>13</v>
+      </c>
+      <c r="C475">
+        <v>0.9144968143509853</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>22</v>
+      </c>
+      <c r="B476" t="s">
+        <v>24</v>
+      </c>
+      <c r="C476">
+        <v>0.9891227068431072</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B477" t="s">
+        <v>41</v>
+      </c>
+      <c r="C477">
+        <v>-0.9889441155229898</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>23</v>
+      </c>
+      <c r="B478" t="s">
+        <v>30</v>
+      </c>
+      <c r="C478">
+        <v>0.9997905433887286</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B479" t="s">
+        <v>36</v>
+      </c>
+      <c r="C479">
+        <v>-0.901385174157144</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>23</v>
+      </c>
+      <c r="B480" t="s">
+        <v>37</v>
+      </c>
+      <c r="C480">
+        <v>0.9673763112778081</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B481" t="s">
+        <v>33</v>
+      </c>
+      <c r="C481">
+        <v>0.9998743164693094</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>23</v>
+      </c>
+      <c r="B482" t="s">
+        <v>43</v>
+      </c>
+      <c r="C482">
+        <v>-0.7633019833446214</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>23</v>
+      </c>
+      <c r="B483" t="s">
+        <v>32</v>
+      </c>
+      <c r="C483">
+        <v>0.999897499623766</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>23</v>
+      </c>
+      <c r="B484" t="s">
+        <v>35</v>
+      </c>
+      <c r="C484">
+        <v>0.9997331855427513</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485" t="s">
+        <v>31</v>
+      </c>
+      <c r="C485">
+        <v>0.9999564887176086</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>23</v>
+      </c>
+      <c r="B486" t="s">
+        <v>20</v>
+      </c>
+      <c r="C486">
+        <v>0.9699677166143732</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>23</v>
+      </c>
+      <c r="B487" t="s">
+        <v>13</v>
+      </c>
+      <c r="C487">
+        <v>0.9146322034254781</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>23</v>
+      </c>
+      <c r="B488" t="s">
+        <v>27</v>
+      </c>
+      <c r="C488">
+        <v>-0.9987512747972669</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>23</v>
+      </c>
+      <c r="B489" t="s">
+        <v>40</v>
+      </c>
+      <c r="C489">
+        <v>-0.988939118640317</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>23</v>
+      </c>
+      <c r="B490" t="s">
+        <v>39</v>
+      </c>
+      <c r="C490">
+        <v>-0.9873688662147938</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>23</v>
+      </c>
+      <c r="B491" t="s">
+        <v>24</v>
+      </c>
+      <c r="C491">
+        <v>0.9889783382309491</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>23</v>
+      </c>
+      <c r="B492" t="s">
+        <v>34</v>
+      </c>
+      <c r="C492">
+        <v>0.9996431463606903</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>23</v>
+      </c>
+      <c r="B493" t="s">
+        <v>17</v>
+      </c>
+      <c r="C493">
+        <v>0.9503191174313101</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>23</v>
+      </c>
+      <c r="B494" t="s">
+        <v>42</v>
+      </c>
+      <c r="C494">
+        <v>0.9978508505290288</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>23</v>
+      </c>
+      <c r="B495" t="s">
+        <v>25</v>
+      </c>
+      <c r="C495">
+        <v>-0.9904364925230997</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>23</v>
+      </c>
+      <c r="B496" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496">
+        <v>0.9925710271313217</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>23</v>
+      </c>
+      <c r="B497" t="s">
+        <v>38</v>
+      </c>
+      <c r="C497">
+        <v>-0.9876516502614942</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>23</v>
+      </c>
+      <c r="B498" t="s">
+        <v>26</v>
+      </c>
+      <c r="C498">
+        <v>-0.989992848475723</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>24</v>
+      </c>
+      <c r="B499" t="s">
+        <v>26</v>
+      </c>
+      <c r="C499">
+        <v>-0.9931461200361098</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>24</v>
+      </c>
+      <c r="B500" t="s">
+        <v>25</v>
+      </c>
+      <c r="C500">
+        <v>-0.9930986578343637</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>24</v>
+      </c>
+      <c r="B501" t="s">
+        <v>43</v>
+      </c>
+      <c r="C501">
+        <v>-0.7179414983679879</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>25</v>
+      </c>
+      <c r="B502" t="s">
+        <v>43</v>
+      </c>
+      <c r="C502">
+        <v>0.702350833767669</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>25</v>
+      </c>
+      <c r="B503" t="s">
+        <v>26</v>
+      </c>
+      <c r="C503">
+        <v>0.9999629623280101</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>26</v>
+      </c>
+      <c r="B504" t="s">
+        <v>43</v>
+      </c>
+      <c r="C504">
+        <v>0.7003382617327276</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>27</v>
+      </c>
+      <c r="B505" t="s">
+        <v>26</v>
+      </c>
+      <c r="C505">
+        <v>0.9940208799034025</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>27</v>
+      </c>
+      <c r="B506" t="s">
+        <v>40</v>
+      </c>
+      <c r="C506">
+        <v>0.9863445600856856</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>27</v>
+      </c>
+      <c r="B507" t="s">
+        <v>39</v>
+      </c>
+      <c r="C507">
+        <v>0.986128032248051</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>27</v>
+      </c>
+      <c r="B508" t="s">
+        <v>41</v>
+      </c>
+      <c r="C508">
+        <v>0.986376066268781</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>27</v>
+      </c>
+      <c r="B509" t="s">
+        <v>25</v>
+      </c>
+      <c r="C509">
+        <v>0.9944618292301741</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>27</v>
+      </c>
+      <c r="B510" t="s">
+        <v>38</v>
+      </c>
+      <c r="C510">
+        <v>0.9861245212152385</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>27</v>
+      </c>
+      <c r="B511" t="s">
+        <v>29</v>
+      </c>
+      <c r="C511">
+        <v>-0.9999664474154811</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>27</v>
+      </c>
+      <c r="B512" t="s">
+        <v>6</v>
+      </c>
+      <c r="C512">
+        <v>-0.9861232797471646</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>27</v>
+      </c>
+      <c r="B513" t="s">
+        <v>43</v>
+      </c>
+      <c r="C513">
+        <v>0.7513343716580971</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>27</v>
+      </c>
+      <c r="B514" t="s">
+        <v>31</v>
+      </c>
+      <c r="C514">
+        <v>-0.9989702575687586</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>27</v>
+      </c>
+      <c r="B515" t="s">
+        <v>34</v>
+      </c>
+      <c r="C515">
+        <v>-0.9990559306790303</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>27</v>
+      </c>
+      <c r="B516" t="s">
+        <v>33</v>
+      </c>
+      <c r="C516">
+        <v>-0.9981885613757704</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>27</v>
+      </c>
+      <c r="B517" t="s">
+        <v>35</v>
+      </c>
+      <c r="C517">
+        <v>-0.9990601813385518</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>27</v>
+      </c>
+      <c r="B518" t="s">
+        <v>13</v>
+      </c>
+      <c r="C518">
+        <v>-0.9300389291006517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>27</v>
+      </c>
+      <c r="B519" t="s">
+        <v>36</v>
+      </c>
+      <c r="C519">
+        <v>0.9125102083824996</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>27</v>
+      </c>
+      <c r="B520" t="s">
+        <v>37</v>
+      </c>
+      <c r="C520">
+        <v>-0.9755642179454881</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>27</v>
+      </c>
+      <c r="B521" t="s">
+        <v>20</v>
+      </c>
+      <c r="C521">
+        <v>-0.9611996362418918</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>27</v>
+      </c>
+      <c r="B522" t="s">
+        <v>42</v>
+      </c>
+      <c r="C522">
+        <v>-0.9963476793093091</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>27</v>
+      </c>
+      <c r="B523" t="s">
+        <v>30</v>
+      </c>
+      <c r="C523">
+        <v>-0.9991285713351674</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>27</v>
+      </c>
+      <c r="B524" t="s">
+        <v>32</v>
+      </c>
+      <c r="C524">
+        <v>-0.9990746996830068</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>27</v>
+      </c>
+      <c r="B525" t="s">
+        <v>17</v>
+      </c>
+      <c r="C525">
+        <v>-0.9488470179820389</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>28</v>
+      </c>
+      <c r="B526" t="s">
+        <v>30</v>
+      </c>
+      <c r="C526">
+        <v>0.9997061616445925</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>28</v>
+      </c>
+      <c r="B527" t="s">
+        <v>13</v>
+      </c>
+      <c r="C527">
+        <v>0.9287171788865124</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>28</v>
+      </c>
+      <c r="B528" t="s">
+        <v>26</v>
+      </c>
+      <c r="C528">
+        <v>-0.9946746756792851</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>28</v>
+      </c>
+      <c r="B529" t="s">
+        <v>43</v>
+      </c>
+      <c r="C529">
+        <v>-0.7468958921859309</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>28</v>
+      </c>
+      <c r="B530" t="s">
+        <v>31</v>
+      </c>
+      <c r="C530">
+        <v>0.9992898310866465</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>28</v>
+      </c>
+      <c r="B531" t="s">
+        <v>35</v>
+      </c>
+      <c r="C531">
+        <v>0.9997768023613386</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>28</v>
+      </c>
+      <c r="B532" t="s">
+        <v>29</v>
+      </c>
+      <c r="C532">
+        <v>0.998511527653426</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>28</v>
+      </c>
+      <c r="B533" t="s">
+        <v>36</v>
+      </c>
+      <c r="C533">
+        <v>-0.9190188841824496</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>28</v>
+      </c>
+      <c r="B534" t="s">
+        <v>41</v>
+      </c>
+      <c r="C534">
+        <v>-0.9922000266995038</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>28</v>
+      </c>
+      <c r="B535" t="s">
+        <v>39</v>
+      </c>
+      <c r="C535">
+        <v>-0.9915366013987207</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>28</v>
+      </c>
+      <c r="B536" t="s">
+        <v>40</v>
+      </c>
+      <c r="C536">
+        <v>-0.9921805617571786</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>28</v>
+      </c>
+      <c r="B537" t="s">
+        <v>32</v>
+      </c>
+      <c r="C537">
+        <v>0.9995241367845089</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>28</v>
+      </c>
+      <c r="B538" t="s">
+        <v>42</v>
+      </c>
+      <c r="C538">
+        <v>0.9953512597920188</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>28</v>
+      </c>
+      <c r="B539" t="s">
+        <v>25</v>
+      </c>
+      <c r="C539">
+        <v>-0.9949573114869172</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>28</v>
+      </c>
+      <c r="B540" t="s">
+        <v>38</v>
+      </c>
+      <c r="C540">
+        <v>-0.9916657961075281</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>28</v>
+      </c>
+      <c r="B541" t="s">
+        <v>34</v>
+      </c>
+      <c r="C541">
+        <v>0.9998488185159146</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>28</v>
+      </c>
+      <c r="B542" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542">
+        <v>0.9875964418227726</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>28</v>
+      </c>
+      <c r="B543" t="s">
+        <v>37</v>
+      </c>
+      <c r="C543">
+        <v>0.973620705311212</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>28</v>
+      </c>
+      <c r="B544" t="s">
+        <v>24</v>
+      </c>
+      <c r="C544">
+        <v>0.9938791691466254</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>28</v>
+      </c>
+      <c r="B545" t="s">
+        <v>20</v>
+      </c>
+      <c r="C545">
+        <v>0.9589158146741197</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>28</v>
+      </c>
+      <c r="B546" t="s">
+        <v>17</v>
+      </c>
+      <c r="C546">
+        <v>0.9579750435232957</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>29</v>
+      </c>
+      <c r="B547" t="s">
+        <v>31</v>
+      </c>
+      <c r="C547">
+        <v>0.9987546813783927</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>29</v>
+      </c>
+      <c r="B548" t="s">
+        <v>41</v>
+      </c>
+      <c r="C548">
+        <v>-0.9860275296653267</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>29</v>
+      </c>
+      <c r="B549" t="s">
+        <v>40</v>
+      </c>
+      <c r="C549">
+        <v>-0.9859941999253043</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>29</v>
+      </c>
+      <c r="B550" t="s">
+        <v>33</v>
+      </c>
+      <c r="C550">
+        <v>0.9978375056467137</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>29</v>
+      </c>
+      <c r="B551" t="s">
+        <v>34</v>
+      </c>
+      <c r="C551">
+        <v>0.9988176579289904</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>29</v>
+      </c>
+      <c r="B552" t="s">
+        <v>39</v>
+      </c>
+      <c r="C552">
+        <v>-0.9859031167630746</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>29</v>
+      </c>
+      <c r="B553" t="s">
+        <v>36</v>
+      </c>
+      <c r="C553">
+        <v>-0.9125923876733962</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>29</v>
+      </c>
+      <c r="B554" t="s">
+        <v>38</v>
+      </c>
+      <c r="C554">
+        <v>-0.9858800291012755</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>29</v>
+      </c>
+      <c r="B555" t="s">
+        <v>6</v>
+      </c>
+      <c r="C555">
+        <v>0.985662929566978</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>29</v>
+      </c>
+      <c r="B556" t="s">
+        <v>43</v>
+      </c>
+      <c r="C556">
+        <v>-0.7533924373360167</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>29</v>
+      </c>
+      <c r="B557" t="s">
+        <v>20</v>
+      </c>
+      <c r="C557">
+        <v>0.9608185672107576</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>29</v>
+      </c>
+      <c r="B558" t="s">
+        <v>42</v>
+      </c>
+      <c r="C558">
+        <v>0.9962608628854529</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>29</v>
+      </c>
+      <c r="B559" t="s">
+        <v>35</v>
+      </c>
+      <c r="C559">
+        <v>0.9988237119014846</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>29</v>
+      </c>
+      <c r="B560" t="s">
+        <v>32</v>
+      </c>
+      <c r="C560">
+        <v>0.9988564419823361</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>29</v>
+      </c>
+      <c r="B561" t="s">
+        <v>37</v>
+      </c>
+      <c r="C561">
+        <v>0.9757027856516588</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>29</v>
+      </c>
+      <c r="B562" t="s">
+        <v>30</v>
+      </c>
+      <c r="C562">
+        <v>0.9989076608052596</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>29</v>
+      </c>
+      <c r="B563" t="s">
+        <v>26</v>
+      </c>
+      <c r="C563">
+        <v>-0.9939158974716161</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>29</v>
+      </c>
+      <c r="B564" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564">
+        <v>-0.9943669518297318</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>29</v>
+      </c>
+      <c r="B565" t="s">
+        <v>13</v>
+      </c>
+      <c r="C565">
+        <v>0.9304941181464945</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>29</v>
+      </c>
+      <c r="B566" t="s">
+        <v>17</v>
+      </c>
+      <c r="C566">
+        <v>0.9480120425572464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>30</v>
+      </c>
+      <c r="B567" t="s">
+        <v>41</v>
+      </c>
+      <c r="C567">
+        <v>-0.9904079847191317</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>30</v>
+      </c>
+      <c r="B568" t="s">
+        <v>42</v>
+      </c>
+      <c r="C568">
+        <v>0.9970050007223147</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>30</v>
+      </c>
+      <c r="B569" t="s">
+        <v>39</v>
+      </c>
+      <c r="C569">
+        <v>-0.9893958096771883</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>30</v>
+      </c>
+      <c r="B570" t="s">
+        <v>24</v>
+      </c>
+      <c r="C570">
+        <v>0.9913353281275489</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>30</v>
+      </c>
+      <c r="B571" t="s">
+        <v>36</v>
+      </c>
+      <c r="C571">
+        <v>-0.909769335331104</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>30</v>
+      </c>
+      <c r="B572" t="s">
+        <v>6</v>
+      </c>
+      <c r="C572">
+        <v>0.9904107550494455</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>30</v>
+      </c>
+      <c r="B573" t="s">
+        <v>40</v>
+      </c>
+      <c r="C573">
+        <v>-0.9903947169619819</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>30</v>
+      </c>
+      <c r="B574" t="s">
+        <v>38</v>
+      </c>
+      <c r="C574">
+        <v>-0.9895908827209304</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>30</v>
+      </c>
+      <c r="B575" t="s">
+        <v>37</v>
+      </c>
+      <c r="C575">
+        <v>0.9706597951817089</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>30</v>
+      </c>
+      <c r="B576" t="s">
+        <v>25</v>
+      </c>
+      <c r="C576">
+        <v>-0.9928479123559136</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>30</v>
+      </c>
+      <c r="B577" t="s">
+        <v>34</v>
+      </c>
+      <c r="C577">
+        <v>0.9999759268392652</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>30</v>
+      </c>
+      <c r="B578" t="s">
+        <v>17</v>
+      </c>
+      <c r="C578">
+        <v>0.9534451090576253</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>30</v>
+      </c>
+      <c r="B579" t="s">
+        <v>32</v>
+      </c>
+      <c r="C579">
+        <v>0.9999757616231112</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>30</v>
+      </c>
+      <c r="B580" t="s">
+        <v>31</v>
+      </c>
+      <c r="C580">
+        <v>0.9999015619062321</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>30</v>
+      </c>
+      <c r="B581" t="s">
+        <v>43</v>
+      </c>
+      <c r="C581">
+        <v>-0.7569764389568551</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>30</v>
+      </c>
+      <c r="B582" t="s">
+        <v>26</v>
+      </c>
+      <c r="C582">
+        <v>-0.9924600663678591</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>30</v>
+      </c>
+      <c r="B583" t="s">
+        <v>20</v>
+      </c>
+      <c r="C583">
+        <v>0.9650893152388329</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>30</v>
+      </c>
+      <c r="B584" t="s">
+        <v>35</v>
+      </c>
+      <c r="C584">
+        <v>0.9999926078970518</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>30</v>
+      </c>
+      <c r="B585" t="s">
+        <v>13</v>
+      </c>
+      <c r="C585">
+        <v>0.9217908589639038</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>31</v>
+      </c>
+      <c r="B586" t="s">
+        <v>38</v>
+      </c>
+      <c r="C586">
+        <v>-0.9881132363666828</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>31</v>
+      </c>
+      <c r="B587" t="s">
+        <v>39</v>
+      </c>
+      <c r="C587">
+        <v>-0.9878668417921683</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>31</v>
+      </c>
+      <c r="B588" t="s">
+        <v>17</v>
+      </c>
+      <c r="C588">
+        <v>0.9511914995461676</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>31</v>
+      </c>
+      <c r="B589" t="s">
+        <v>35</v>
+      </c>
+      <c r="C589">
+        <v>0.9998619045244884</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>31</v>
+      </c>
+      <c r="B590" t="s">
+        <v>32</v>
+      </c>
+      <c r="C590">
+        <v>0.9999750158733439</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>31</v>
+      </c>
+      <c r="B591" t="s">
+        <v>20</v>
+      </c>
+      <c r="C591">
+        <v>0.9684682570007386</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>31</v>
+      </c>
+      <c r="B592" t="s">
+        <v>37</v>
+      </c>
+      <c r="C592">
+        <v>0.9686897548163058</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>31</v>
+      </c>
+      <c r="B593" t="s">
+        <v>6</v>
+      </c>
+      <c r="C593">
+        <v>0.9919338582327942</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>31</v>
+      </c>
+      <c r="B594" t="s">
+        <v>36</v>
+      </c>
+      <c r="C594">
+        <v>-0.9040353281081432</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>31</v>
+      </c>
+      <c r="B595" t="s">
+        <v>24</v>
+      </c>
+      <c r="C595">
+        <v>0.9897904135984072</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>31</v>
+      </c>
+      <c r="B596" t="s">
+        <v>41</v>
+      </c>
+      <c r="C596">
+        <v>-0.9894535662590762</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>31</v>
+      </c>
+      <c r="B597" t="s">
+        <v>33</v>
+      </c>
+      <c r="C597">
+        <v>0.9998355080695042</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>31</v>
+      </c>
+      <c r="B598" t="s">
+        <v>43</v>
+      </c>
+      <c r="C598">
+        <v>-0.7616457382481652</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>31</v>
+      </c>
+      <c r="B599" t="s">
+        <v>34</v>
+      </c>
+      <c r="C599">
+        <v>0.9997897945191928</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>31</v>
+      </c>
+      <c r="B600" t="s">
+        <v>25</v>
+      </c>
+      <c r="C600">
+        <v>-0.9912678389039167</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>31</v>
+      </c>
+      <c r="B601" t="s">
+        <v>42</v>
+      </c>
+      <c r="C601">
+        <v>0.9974989278389778</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>31</v>
+      </c>
+      <c r="B602" t="s">
+        <v>40</v>
+      </c>
+      <c r="C602">
+        <v>-0.9894452630757383</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>31</v>
+      </c>
+      <c r="B603" t="s">
+        <v>26</v>
+      </c>
+      <c r="C603">
+        <v>-0.9908415133567882</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>32</v>
+      </c>
+      <c r="B604" t="s">
+        <v>26</v>
+      </c>
+      <c r="C604">
+        <v>-0.9916813409339317</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>32</v>
+      </c>
+      <c r="B605" t="s">
+        <v>6</v>
+      </c>
+      <c r="C605">
+        <v>0.9911908525266991</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>32</v>
+      </c>
+      <c r="B606" t="s">
+        <v>25</v>
+      </c>
+      <c r="C606">
+        <v>-0.9920883197137257</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>32</v>
+      </c>
+      <c r="B607" t="s">
+        <v>35</v>
+      </c>
+      <c r="C607">
+        <v>0.9999523468463614</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>32</v>
+      </c>
+      <c r="B608" t="s">
+        <v>33</v>
+      </c>
+      <c r="C608">
+        <v>0.9997827202472123</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>32</v>
+      </c>
+      <c r="B609" t="s">
+        <v>41</v>
+      </c>
+      <c r="C609">
+        <v>-0.9899583992405696</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" t="s">
+        <v>32</v>
+      </c>
+      <c r="B610" t="s">
+        <v>39</v>
+      </c>
+      <c r="C610">
+        <v>-0.9886612221777987</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" t="s">
+        <v>32</v>
+      </c>
+      <c r="B611" t="s">
+        <v>40</v>
+      </c>
+      <c r="C611">
+        <v>-0.9899475939680302</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" t="s">
+        <v>32</v>
+      </c>
+      <c r="B612" t="s">
+        <v>38</v>
+      </c>
+      <c r="C612">
+        <v>-0.988881759522653</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" t="s">
+        <v>32</v>
+      </c>
+      <c r="B613" t="s">
+        <v>34</v>
+      </c>
+      <c r="C613">
+        <v>0.9999081604150999</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" t="s">
+        <v>32</v>
+      </c>
+      <c r="B614" t="s">
+        <v>42</v>
+      </c>
+      <c r="C614">
+        <v>0.997274877836576</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" t="s">
+        <v>32</v>
+      </c>
+      <c r="B615" t="s">
+        <v>24</v>
+      </c>
+      <c r="C615">
+        <v>0.9905929212447455</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" t="s">
+        <v>32</v>
+      </c>
+      <c r="B616" t="s">
+        <v>37</v>
+      </c>
+      <c r="C616">
+        <v>0.9697059628187154</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" t="s">
+        <v>32</v>
+      </c>
+      <c r="B617" t="s">
+        <v>20</v>
+      </c>
+      <c r="C617">
+        <v>0.9667899440461124</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" t="s">
+        <v>32</v>
+      </c>
+      <c r="B618" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618">
+        <v>0.9194333850370231</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" t="s">
+        <v>32</v>
+      </c>
+      <c r="B619" t="s">
+        <v>36</v>
+      </c>
+      <c r="C619">
+        <v>-0.9069462649536608</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" t="s">
+        <v>32</v>
+      </c>
+      <c r="B620" t="s">
+        <v>17</v>
+      </c>
+      <c r="C620">
+        <v>0.9523497451533062</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" t="s">
+        <v>32</v>
+      </c>
+      <c r="B621" t="s">
+        <v>43</v>
+      </c>
+      <c r="C621">
+        <v>-0.7593130376050645</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" t="s">
+        <v>33</v>
+      </c>
+      <c r="B622" t="s">
+        <v>25</v>
+      </c>
+      <c r="C622">
+        <v>-0.9900066599322978</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" t="s">
+        <v>33</v>
+      </c>
+      <c r="B623" t="s">
+        <v>38</v>
+      </c>
+      <c r="C623">
+        <v>-0.9879516987063141</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" t="s">
+        <v>33</v>
+      </c>
+      <c r="B624" t="s">
+        <v>43</v>
+      </c>
+      <c r="C624">
+        <v>-0.7606098828035478</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" t="s">
+        <v>33</v>
+      </c>
+      <c r="B625" t="s">
+        <v>42</v>
+      </c>
+      <c r="C625">
+        <v>0.9973295430417662</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
+        <v>33</v>
+      </c>
+      <c r="B626" t="s">
+        <v>36</v>
+      </c>
+      <c r="C626">
+        <v>-0.9009944253186344</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" t="s">
+        <v>33</v>
+      </c>
+      <c r="B627" t="s">
+        <v>13</v>
+      </c>
+      <c r="C627">
+        <v>0.9130129272018047</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" t="s">
+        <v>33</v>
+      </c>
+      <c r="B628" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628">
+        <v>0.9931109749979504</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" t="s">
+        <v>33</v>
+      </c>
+      <c r="B629" t="s">
+        <v>34</v>
+      </c>
+      <c r="C629">
+        <v>0.9995734822914918</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" t="s">
+        <v>33</v>
+      </c>
+      <c r="B630" t="s">
+        <v>40</v>
+      </c>
+      <c r="C630">
+        <v>-0.9894304220766191</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" t="s">
+        <v>33</v>
+      </c>
+      <c r="B631" t="s">
+        <v>17</v>
+      </c>
+      <c r="C631">
+        <v>0.9514612626909961</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" t="s">
+        <v>33</v>
+      </c>
+      <c r="B632" t="s">
+        <v>26</v>
+      </c>
+      <c r="C632">
+        <v>-0.9895800571586665</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" t="s">
+        <v>33</v>
+      </c>
+      <c r="B633" t="s">
+        <v>37</v>
+      </c>
+      <c r="C633">
+        <v>0.9663341302267922</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" t="s">
+        <v>33</v>
+      </c>
+      <c r="B634" t="s">
+        <v>24</v>
+      </c>
+      <c r="C634">
+        <v>0.9896080311820642</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" t="s">
+        <v>33</v>
+      </c>
+      <c r="B635" t="s">
+        <v>20</v>
+      </c>
+      <c r="C635">
+        <v>0.9701284261628657</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" t="s">
+        <v>33</v>
+      </c>
+      <c r="B636" t="s">
+        <v>41</v>
+      </c>
+      <c r="C636">
+        <v>-0.9894320726328487</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" t="s">
+        <v>33</v>
+      </c>
+      <c r="B637" t="s">
+        <v>39</v>
+      </c>
+      <c r="C637">
+        <v>-0.9876330268292112</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" t="s">
+        <v>34</v>
+      </c>
+      <c r="B638" t="s">
+        <v>36</v>
+      </c>
+      <c r="C638">
+        <v>-0.9123300349334181</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" t="s">
+        <v>34</v>
+      </c>
+      <c r="B639" t="s">
+        <v>41</v>
+      </c>
+      <c r="C639">
+        <v>-0.9910034497015591</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" t="s">
+        <v>34</v>
+      </c>
+      <c r="B640" t="s">
+        <v>6</v>
+      </c>
+      <c r="C640">
+        <v>0.9897367271040016</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" t="s">
+        <v>34</v>
+      </c>
+      <c r="B641" t="s">
+        <v>40</v>
+      </c>
+      <c r="C641">
+        <v>-0.9909887741994783</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" t="s">
+        <v>34</v>
+      </c>
+      <c r="B642" t="s">
+        <v>38</v>
+      </c>
+      <c r="C642">
+        <v>-0.9902444824579869</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" t="s">
+        <v>34</v>
+      </c>
+      <c r="B643" t="s">
+        <v>42</v>
+      </c>
+      <c r="C643">
+        <v>0.9965859089904205</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" t="s">
+        <v>34</v>
+      </c>
+      <c r="B644" t="s">
+        <v>24</v>
+      </c>
+      <c r="C644">
+        <v>0.9921312256582722</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" t="s">
+        <v>34</v>
+      </c>
+      <c r="B645" t="s">
+        <v>35</v>
+      </c>
+      <c r="C645">
+        <v>0.999992168436412</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" t="s">
+        <v>34</v>
+      </c>
+      <c r="B646" t="s">
+        <v>37</v>
+      </c>
+      <c r="C646">
+        <v>0.9714666391458066</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" t="s">
+        <v>34</v>
+      </c>
+      <c r="B647" t="s">
+        <v>20</v>
+      </c>
+      <c r="C647">
+        <v>0.9634719949657089</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" t="s">
+        <v>34</v>
+      </c>
+      <c r="B648" t="s">
+        <v>17</v>
+      </c>
+      <c r="C648">
+        <v>0.95484525503853</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" t="s">
+        <v>34</v>
+      </c>
+      <c r="B649" t="s">
+        <v>13</v>
+      </c>
+      <c r="C649">
+        <v>0.9236284105279071</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" t="s">
+        <v>34</v>
+      </c>
+      <c r="B650" t="s">
+        <v>25</v>
+      </c>
+      <c r="C650">
+        <v>-0.9934582451120436</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" t="s">
+        <v>34</v>
+      </c>
+      <c r="B651" t="s">
+        <v>43</v>
+      </c>
+      <c r="C651">
+        <v>-0.7540610378364485</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" t="s">
+        <v>34</v>
+      </c>
+      <c r="B652" t="s">
+        <v>26</v>
+      </c>
+      <c r="C652">
+        <v>-0.9931014042220334</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" t="s">
+        <v>34</v>
+      </c>
+      <c r="B653" t="s">
+        <v>39</v>
+      </c>
+      <c r="C653">
+        <v>-0.9900643420538581</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" t="s">
+        <v>35</v>
+      </c>
+      <c r="B654" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654">
+        <v>0.9223465460171179</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" t="s">
+        <v>35</v>
+      </c>
+      <c r="B655" t="s">
+        <v>43</v>
+      </c>
+      <c r="C655">
+        <v>-0.7553572923251135</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" t="s">
+        <v>35</v>
+      </c>
+      <c r="B656" t="s">
+        <v>42</v>
+      </c>
+      <c r="C656">
+        <v>0.9967630755231449</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" t="s">
+        <v>35</v>
+      </c>
+      <c r="B657" t="s">
+        <v>25</v>
+      </c>
+      <c r="C657">
+        <v>-0.9930664311717549</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" t="s">
+        <v>35</v>
+      </c>
+      <c r="B658" t="s">
+        <v>20</v>
+      </c>
+      <c r="C658">
+        <v>0.9644498872933908</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" t="s">
+        <v>35</v>
+      </c>
+      <c r="B659" t="s">
+        <v>26</v>
+      </c>
+      <c r="C659">
+        <v>-0.9926991141567985</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" t="s">
+        <v>35</v>
+      </c>
+      <c r="B660" t="s">
+        <v>41</v>
+      </c>
+      <c r="C660">
+        <v>-0.9907794966666831</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" t="s">
+        <v>35</v>
+      </c>
+      <c r="B661" t="s">
+        <v>40</v>
+      </c>
+      <c r="C661">
+        <v>-0.9907661830276282</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" t="s">
+        <v>35</v>
+      </c>
+      <c r="B662" t="s">
+        <v>36</v>
+      </c>
+      <c r="C662">
+        <v>-0.9107740287310092</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" t="s">
+        <v>35</v>
+      </c>
+      <c r="B663" t="s">
+        <v>17</v>
+      </c>
+      <c r="C663">
+        <v>0.9542711221713074</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" t="s">
+        <v>35</v>
+      </c>
+      <c r="B664" t="s">
+        <v>6</v>
+      </c>
+      <c r="C664">
+        <v>0.9901980974287805</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" t="s">
+        <v>35</v>
+      </c>
+      <c r="B665" t="s">
+        <v>38</v>
+      </c>
+      <c r="C665">
+        <v>-0.9898609923751067</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" t="s">
+        <v>35</v>
+      </c>
+      <c r="B666" t="s">
+        <v>39</v>
+      </c>
+      <c r="C666">
+        <v>-0.98966684794771</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" t="s">
+        <v>35</v>
+      </c>
+      <c r="B667" t="s">
+        <v>37</v>
+      </c>
+      <c r="C667">
+        <v>0.970972337483305</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" t="s">
+        <v>36</v>
+      </c>
+      <c r="B668" t="s">
+        <v>37</v>
+      </c>
+      <c r="C668">
+        <v>-0.947226533302188</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" t="s">
+        <v>36</v>
+      </c>
+      <c r="B669" t="s">
+        <v>17</v>
+      </c>
+      <c r="C669">
+        <v>-0.933791183357504</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" t="s">
+        <v>36</v>
+      </c>
+      <c r="B670" t="s">
+        <v>20</v>
+      </c>
+      <c r="C670">
+        <v>-0.7711153015796351</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" t="s">
+        <v>36</v>
+      </c>
+      <c r="B671" t="s">
+        <v>13</v>
+      </c>
+      <c r="C671">
+        <v>-0.9848701634245137</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" t="s">
+        <v>36</v>
+      </c>
+      <c r="B672" t="s">
+        <v>40</v>
+      </c>
+      <c r="C672">
+        <v>0.9282376055535992</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" t="s">
+        <v>36</v>
+      </c>
+      <c r="B673" t="s">
+        <v>41</v>
+      </c>
+      <c r="C673">
+        <v>0.9284071006451096</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" t="s">
+        <v>36</v>
+      </c>
+      <c r="B674" t="s">
+        <v>42</v>
+      </c>
+      <c r="C674">
+        <v>-0.8875239387154007</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" t="s">
+        <v>36</v>
+      </c>
+      <c r="B675" t="s">
+        <v>26</v>
+      </c>
+      <c r="C675">
+        <v>0.9507217436169954</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" t="s">
+        <v>36</v>
+      </c>
+      <c r="B676" t="s">
+        <v>38</v>
+      </c>
+      <c r="C676">
+        <v>0.9375282296819321</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" t="s">
+        <v>36</v>
+      </c>
+      <c r="B677" t="s">
+        <v>25</v>
+      </c>
+      <c r="C677">
+        <v>0.9496913270307713</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" t="s">
+        <v>36</v>
+      </c>
+      <c r="B678" t="s">
+        <v>39</v>
+      </c>
+      <c r="C678">
+        <v>0.9390159238452281</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" t="s">
+        <v>37</v>
+      </c>
+      <c r="B679" t="s">
+        <v>42</v>
+      </c>
+      <c r="C679">
+        <v>0.9572956586461473</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" t="s">
+        <v>37</v>
+      </c>
+      <c r="B680" t="s">
+        <v>26</v>
+      </c>
+      <c r="C680">
+        <v>-0.9869057518603713</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" t="s">
+        <v>37</v>
+      </c>
+      <c r="B681" t="s">
+        <v>17</v>
+      </c>
+      <c r="C681">
+        <v>0.9402905703286125</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" t="s">
+        <v>37</v>
+      </c>
+      <c r="B682" t="s">
+        <v>39</v>
+      </c>
+      <c r="C682">
+        <v>-0.9621465209376476</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" t="s">
+        <v>37</v>
+      </c>
+      <c r="B683" t="s">
+        <v>38</v>
+      </c>
+      <c r="C683">
+        <v>-0.9613953944408031</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" t="s">
+        <v>37</v>
+      </c>
+      <c r="B684" t="s">
+        <v>40</v>
+      </c>
+      <c r="C684">
+        <v>-0.9606751514561465</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" t="s">
+        <v>37</v>
+      </c>
+      <c r="B685" t="s">
+        <v>25</v>
+      </c>
+      <c r="C685">
+        <v>-0.986476977615412</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" t="s">
+        <v>37</v>
+      </c>
+      <c r="B686" t="s">
+        <v>41</v>
+      </c>
+      <c r="C686">
+        <v>-0.9607743639822485</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" t="s">
+        <v>37</v>
+      </c>
+      <c r="B687" t="s">
+        <v>13</v>
+      </c>
+      <c r="C687">
+        <v>0.9621057274259945</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" t="s">
+        <v>37</v>
+      </c>
+      <c r="B688" t="s">
+        <v>6</v>
+      </c>
+      <c r="C688">
+        <v>0.9346934760444279</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" t="s">
+        <v>38</v>
+      </c>
+      <c r="B689" t="s">
+        <v>20</v>
+      </c>
+      <c r="C689">
+        <v>-0.933791664496649</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" t="s">
+        <v>38</v>
+      </c>
+      <c r="B690" t="s">
+        <v>26</v>
+      </c>
+      <c r="C690">
+        <v>0.9888240790922885</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" t="s">
+        <v>38</v>
+      </c>
+      <c r="B691" t="s">
+        <v>39</v>
+      </c>
+      <c r="C691">
+        <v>0.9999776656531113</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" t="s">
+        <v>38</v>
+      </c>
+      <c r="B692" t="s">
+        <v>42</v>
+      </c>
+      <c r="C692">
+        <v>-0.9824147961266112</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" t="s">
+        <v>38</v>
+      </c>
+      <c r="B693" t="s">
+        <v>6</v>
+      </c>
+      <c r="C693">
+        <v>-0.9744154989188238</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" t="s">
+        <v>38</v>
+      </c>
+      <c r="B694" t="s">
+        <v>13</v>
+      </c>
+      <c r="C694">
+        <v>-0.931853406829416</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" t="s">
+        <v>38</v>
+      </c>
+      <c r="B695" t="s">
+        <v>40</v>
+      </c>
+      <c r="C695">
+        <v>0.9945876799665622</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" t="s">
+        <v>38</v>
+      </c>
+      <c r="B696" t="s">
+        <v>43</v>
+      </c>
+      <c r="C696">
+        <v>0.7444981351564474</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" t="s">
+        <v>38</v>
+      </c>
+      <c r="B697" t="s">
+        <v>24</v>
+      </c>
+      <c r="C697">
+        <v>-0.9956616851938438</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" t="s">
+        <v>38</v>
+      </c>
+      <c r="B698" t="s">
+        <v>41</v>
+      </c>
+      <c r="C698">
+        <v>0.9946198976512309</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" t="s">
+        <v>38</v>
+      </c>
+      <c r="B699" t="s">
+        <v>25</v>
+      </c>
+      <c r="C699">
+        <v>0.9887008526510558</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" t="s">
+        <v>38</v>
+      </c>
+      <c r="B700" t="s">
+        <v>17</v>
+      </c>
+      <c r="C700">
+        <v>-0.9581593910981899</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" t="s">
+        <v>39</v>
+      </c>
+      <c r="B701" t="s">
+        <v>6</v>
+      </c>
+      <c r="C701">
+        <v>-0.9735005192604943</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" t="s">
+        <v>39</v>
+      </c>
+      <c r="B702" t="s">
+        <v>26</v>
+      </c>
+      <c r="C702">
+        <v>0.989227813651455</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" t="s">
+        <v>39</v>
+      </c>
+      <c r="B703" t="s">
+        <v>25</v>
+      </c>
+      <c r="C703">
+        <v>0.9891031983358625</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" t="s">
+        <v>39</v>
+      </c>
+      <c r="B704" t="s">
+        <v>43</v>
+      </c>
+      <c r="C704">
+        <v>0.743047902406236</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" t="s">
+        <v>39</v>
+      </c>
+      <c r="B705" t="s">
+        <v>42</v>
+      </c>
+      <c r="C705">
+        <v>-0.9820196860734279</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" t="s">
+        <v>39</v>
+      </c>
+      <c r="B706" t="s">
+        <v>17</v>
+      </c>
+      <c r="C706">
+        <v>-0.957700834546656</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" t="s">
+        <v>39</v>
+      </c>
+      <c r="B707" t="s">
+        <v>40</v>
+      </c>
+      <c r="C707">
+        <v>0.994266502752746</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" t="s">
+        <v>39</v>
+      </c>
+      <c r="B708" t="s">
+        <v>41</v>
+      </c>
+      <c r="C708">
+        <v>0.9943029249886253</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" t="s">
+        <v>39</v>
+      </c>
+      <c r="B709" t="s">
+        <v>20</v>
+      </c>
+      <c r="C709">
+        <v>-0.932452932054161</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" t="s">
+        <v>39</v>
+      </c>
+      <c r="B710" t="s">
+        <v>13</v>
+      </c>
+      <c r="C710">
+        <v>-0.9337901868319912</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" t="s">
+        <v>39</v>
+      </c>
+      <c r="B711" t="s">
+        <v>24</v>
+      </c>
+      <c r="C711">
+        <v>-0.9955892271004663</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" t="s">
+        <v>40</v>
+      </c>
+      <c r="B712" t="s">
+        <v>42</v>
+      </c>
+      <c r="C712">
+        <v>-0.9817819882985515</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" t="s">
+        <v>40</v>
+      </c>
+      <c r="B713" t="s">
+        <v>6</v>
+      </c>
+      <c r="C713">
+        <v>-0.9785098074605857</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" t="s">
+        <v>40</v>
+      </c>
+      <c r="B714" t="s">
+        <v>17</v>
+      </c>
+      <c r="C714">
+        <v>-0.9741335346249246</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" t="s">
+        <v>40</v>
+      </c>
+      <c r="B715" t="s">
+        <v>24</v>
+      </c>
+      <c r="C715">
+        <v>-0.9961053328470006</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" t="s">
+        <v>40</v>
+      </c>
+      <c r="B716" t="s">
+        <v>41</v>
+      </c>
+      <c r="C716">
+        <v>0.9999998005748947</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" t="s">
+        <v>40</v>
+      </c>
+      <c r="B717" t="s">
+        <v>20</v>
+      </c>
+      <c r="C717">
+        <v>-0.9413947171171549</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" t="s">
+        <v>40</v>
+      </c>
+      <c r="B718" t="s">
+        <v>25</v>
+      </c>
+      <c r="C718">
+        <v>0.9867819137351209</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719" t="s">
+        <v>40</v>
+      </c>
+      <c r="B719" t="s">
+        <v>43</v>
+      </c>
+      <c r="C719">
+        <v>0.7305194651418629</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720" t="s">
+        <v>40</v>
+      </c>
+      <c r="B720" t="s">
+        <v>26</v>
+      </c>
+      <c r="C720">
+        <v>0.9869844090512915</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721" t="s">
+        <v>40</v>
+      </c>
+      <c r="B721" t="s">
+        <v>13</v>
+      </c>
+      <c r="C721">
+        <v>-0.9216354937430504</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722" t="s">
+        <v>41</v>
+      </c>
+      <c r="B722" t="s">
+        <v>13</v>
+      </c>
+      <c r="C722">
+        <v>-0.9218461195472895</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" t="s">
+        <v>41</v>
+      </c>
+      <c r="B723" t="s">
+        <v>6</v>
+      </c>
+      <c r="C723">
+        <v>-0.9784555301267764</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" t="s">
+        <v>41</v>
+      </c>
+      <c r="B724" t="s">
+        <v>26</v>
+      </c>
+      <c r="C724">
+        <v>0.9870533914301516</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725" t="s">
+        <v>41</v>
+      </c>
+      <c r="B725" t="s">
+        <v>17</v>
+      </c>
+      <c r="C725">
+        <v>-0.974114753895473</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" t="s">
+        <v>41</v>
+      </c>
+      <c r="B726" t="s">
+        <v>42</v>
+      </c>
+      <c r="C726">
         <v>-0.9817774889262876</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" t="s">
+        <v>41</v>
+      </c>
+      <c r="B727" t="s">
+        <v>20</v>
+      </c>
+      <c r="C727">
+        <v>-0.9412989434450957</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728" t="s">
+        <v>41</v>
+      </c>
+      <c r="B728" t="s">
+        <v>25</v>
+      </c>
+      <c r="C728">
+        <v>0.9868508027072485</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" t="s">
+        <v>41</v>
+      </c>
+      <c r="B729" t="s">
+        <v>43</v>
+      </c>
+      <c r="C729">
+        <v>0.7304175897525585</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730" t="s">
+        <v>41</v>
+      </c>
+      <c r="B730" t="s">
+        <v>24</v>
+      </c>
+      <c r="C730">
+        <v>-0.9961301222522171</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731" t="s">
+        <v>42</v>
+      </c>
+      <c r="B731" t="s">
+        <v>20</v>
+      </c>
+      <c r="C731">
+        <v>0.975525681033659</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" t="s">
+        <v>42</v>
+      </c>
+      <c r="B732" t="s">
+        <v>43</v>
+      </c>
+      <c r="C732">
+        <v>-0.7893108648488648</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733" t="s">
+        <v>42</v>
+      </c>
+      <c r="B733" t="s">
+        <v>6</v>
+      </c>
+      <c r="C733">
+        <v>0.9928518104049028</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="A734" t="s">
+        <v>42</v>
+      </c>
+      <c r="B734" t="s">
+        <v>26</v>
+      </c>
+      <c r="C734">
+        <v>-0.9840902127371017</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735" t="s">
+        <v>42</v>
+      </c>
+      <c r="B735" t="s">
+        <v>25</v>
+      </c>
+      <c r="C735">
+        <v>-0.9847551790553395</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736" t="s">
+        <v>42</v>
+      </c>
+      <c r="B736" t="s">
+        <v>24</v>
+      </c>
+      <c r="C736">
+        <v>0.9822049873076364</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" t="s">
+        <v>42</v>
+      </c>
+      <c r="B737" t="s">
+        <v>17</v>
+      </c>
+      <c r="C737">
+        <v>0.9366207496588008</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738" t="s">
+        <v>42</v>
+      </c>
+      <c r="B738" t="s">
+        <v>13</v>
+      </c>
+      <c r="C738">
+        <v>0.9043011320416465</v>
       </c>
     </row>
   </sheetData>
